--- a/Visualization/data/Yearly_INPADOC_Totals.xlsx
+++ b/Visualization/data/Yearly_INPADOC_Totals.xlsx
@@ -1,57 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>INPADOC同族专利申请数量</t>
   </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>欧洲专利局</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -74,21 +432,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,107 +1025,497 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="12.8888888888889"/>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="10" max="10" width="15.2222222222222"/>
+    <col min="12" max="12" width="12.8888888888889"/>
+    <col min="14" max="14" width="15.2222222222222"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2">
         <v>5476</v>
       </c>
+      <c r="E2" s="2">
+        <v>292</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/B2</f>
+        <v>0.0533235938641344</v>
+      </c>
+      <c r="G2" s="2">
+        <v>419</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/B2</f>
+        <v>0.0765157048940833</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2/B2</f>
+        <v>0.00365230094959825</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1052</v>
+      </c>
+      <c r="L2">
+        <f>K2/B2</f>
+        <v>0.192111029948868</v>
+      </c>
+      <c r="M2" s="2">
+        <v>848</v>
+      </c>
+      <c r="N2">
+        <f>M2/B2</f>
+        <v>0.154857560262966</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3">
         <v>4752</v>
       </c>
+      <c r="E3" s="2">
+        <v>247</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F10" si="0">E3/B3</f>
+        <v>0.0519781144781145</v>
+      </c>
+      <c r="G3" s="2">
+        <v>179</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H11" si="1">G3/B3</f>
+        <v>0.0376683501683502</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J11" si="2">I3/B3</f>
+        <v>0.0105218855218855</v>
+      </c>
+      <c r="K3" s="2">
+        <v>911</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="3">K3/B3</f>
+        <v>0.191708754208754</v>
+      </c>
+      <c r="M3" s="2">
+        <v>703</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="4">M3/B3</f>
+        <v>0.14793771043771</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4">
         <v>6579</v>
       </c>
+      <c r="E4" s="2">
+        <v>289</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0439276485788114</v>
+      </c>
+      <c r="G4" s="2">
+        <v>356</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0541115671074631</v>
+      </c>
+      <c r="I4" s="2">
+        <v>88</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0133758929928561</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1392</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0.211582307341541</v>
+      </c>
+      <c r="M4" s="2">
+        <v>833</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.126614987080103</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5">
         <v>5428</v>
       </c>
+      <c r="E5" s="2">
+        <v>307</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0565585851142225</v>
+      </c>
+      <c r="G5" s="2">
+        <v>194</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0357406042741341</v>
+      </c>
+      <c r="I5" s="2">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00405305821665438</v>
+      </c>
+      <c r="K5" s="2">
+        <v>945</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>0.1740972733972</v>
+      </c>
+      <c r="M5" s="2">
+        <v>796</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.146647015475313</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6">
         <v>7226</v>
       </c>
+      <c r="E6" s="2">
+        <v>320</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0442845280929975</v>
+      </c>
+      <c r="G6" s="2">
+        <v>366</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0506504290063659</v>
+      </c>
+      <c r="I6" s="2">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0109327428729588</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1648</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>0.228065319678937</v>
+      </c>
+      <c r="M6" s="2">
+        <v>992</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.137282037088292</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7">
         <v>13887</v>
       </c>
+      <c r="E7" s="2">
+        <v>425</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0306041621660546</v>
+      </c>
+      <c r="G7" s="2">
+        <v>650</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0468063656657305</v>
+      </c>
+      <c r="I7" s="2">
+        <v>370</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0266436235328005</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2629</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>0.189313746669547</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1918</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>0.138114783610571</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2019</v>
       </c>
       <c r="B8">
         <v>11766</v>
       </c>
+      <c r="E8" s="2">
+        <v>584</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0496345402005779</v>
+      </c>
+      <c r="G8" s="2">
+        <v>566</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.048104708482067</v>
+      </c>
+      <c r="I8" s="2">
+        <v>123</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0104538500764916</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2551</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.216811150773415</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2189</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.186044535101139</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2020</v>
       </c>
       <c r="B9">
         <v>9812</v>
       </c>
+      <c r="E9" s="2">
+        <v>141</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.0143701589889931</v>
+      </c>
+      <c r="G9" s="2">
+        <v>248</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.025275173257236</v>
+      </c>
+      <c r="I9" s="2">
+        <v>301</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0306767223807583</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1932</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>0.196901752955565</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1307</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>0.133204239706482</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10">
         <v>6887</v>
       </c>
+      <c r="E10" s="2">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.00900246841875998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>209</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0303470306374328</v>
+      </c>
+      <c r="I10" s="2">
+        <v>125</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0181501379410484</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2038</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>0.295919848990852</v>
+      </c>
+      <c r="M10" s="2">
+        <v>895</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>0.129954987657906</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11">
         <v>5297</v>
+      </c>
+      <c r="G11" s="2">
+        <v>126</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.0237870492731735</v>
+      </c>
+      <c r="I11" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.00717387200302058</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1673</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>0.315839154238248</v>
+      </c>
+      <c r="M11" s="2">
+        <v>559</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>0.10553143288654</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14">
+      <c r="F12" s="3">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.0392981999891851</v>
+      </c>
+      <c r="H12" s="3">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.0429006982766037</v>
+      </c>
+      <c r="J12" s="3">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.0135634086488072</v>
+      </c>
+      <c r="L12" s="3">
+        <f>AVERAGE(L2:L11)</f>
+        <v>0.221235033820293</v>
+      </c>
+      <c r="N12" s="3">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.140618928930702</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>